--- a/Model/BayesLSTM/Univariate/result/Manufacturing/AUS.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/AUS.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>9.273019790649414</v>
+        <v>8.440290451049805</v>
       </c>
       <c r="C2" t="n">
-        <v>7.701734066009521</v>
+        <v>7.362188816070557</v>
       </c>
       <c r="D2" t="n">
-        <v>10.84430503845215</v>
+        <v>9.518391609191895</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>9.083673477172852</v>
+        <v>8.841745376586914</v>
       </c>
       <c r="C3" t="n">
-        <v>7.596216201782227</v>
+        <v>7.435684204101562</v>
       </c>
       <c r="D3" t="n">
-        <v>10.57113075256348</v>
+        <v>10.24780654907227</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>9.059022903442383</v>
+        <v>8.990207672119141</v>
       </c>
       <c r="C4" t="n">
-        <v>7.954733371734619</v>
+        <v>7.458803653717041</v>
       </c>
       <c r="D4" t="n">
-        <v>10.16331195831299</v>
+        <v>10.5216121673584</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>8.972217559814453</v>
+        <v>8.864201545715332</v>
       </c>
       <c r="C5" t="n">
-        <v>7.570518493652344</v>
+        <v>7.114763259887695</v>
       </c>
       <c r="D5" t="n">
-        <v>10.37391662597656</v>
+        <v>10.61363983154297</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>8.96273136138916</v>
+        <v>8.76121997833252</v>
       </c>
       <c r="C6" t="n">
-        <v>7.643787860870361</v>
+        <v>6.980874061584473</v>
       </c>
       <c r="D6" t="n">
-        <v>10.28167533874512</v>
+        <v>10.54156589508057</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>9.025598526000977</v>
+        <v>8.617157936096191</v>
       </c>
       <c r="C7" t="n">
-        <v>7.824482917785645</v>
+        <v>6.873094081878662</v>
       </c>
       <c r="D7" t="n">
-        <v>10.22671413421631</v>
+        <v>10.36122131347656</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>8.978000640869141</v>
+        <v>8.564822196960449</v>
       </c>
       <c r="C8" t="n">
-        <v>7.984319686889648</v>
+        <v>6.76055383682251</v>
       </c>
       <c r="D8" t="n">
-        <v>9.971681594848633</v>
+        <v>10.36909103393555</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>9.121614456176758</v>
+        <v>8.530852317810059</v>
       </c>
       <c r="C9" t="n">
-        <v>7.971851825714111</v>
+        <v>6.409802436828613</v>
       </c>
       <c r="D9" t="n">
-        <v>10.27137756347656</v>
+        <v>10.6519021987915</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>9.123766899108887</v>
+        <v>8.513670921325684</v>
       </c>
       <c r="C10" t="n">
-        <v>8.140933990478516</v>
+        <v>6.410971641540527</v>
       </c>
       <c r="D10" t="n">
-        <v>10.10659980773926</v>
+        <v>10.61637020111084</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>9.05052661895752</v>
+        <v>8.690653800964355</v>
       </c>
       <c r="C11" t="n">
-        <v>7.219435214996338</v>
+        <v>6.470093727111816</v>
       </c>
       <c r="D11" t="n">
-        <v>10.88161849975586</v>
+        <v>10.91121387481689</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>9.24809741973877</v>
+        <v>8.702578544616699</v>
       </c>
       <c r="C12" t="n">
-        <v>7.616754055023193</v>
+        <v>6.524847984313965</v>
       </c>
       <c r="D12" t="n">
-        <v>10.87944030761719</v>
+        <v>10.88030910491943</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>9.464892387390137</v>
+        <v>8.757604598999023</v>
       </c>
       <c r="C13" t="n">
-        <v>7.472864151000977</v>
+        <v>6.913673400878906</v>
       </c>
       <c r="D13" t="n">
-        <v>11.4569206237793</v>
+        <v>10.60153579711914</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>9.463519096374512</v>
+        <v>8.808210372924805</v>
       </c>
       <c r="C14" t="n">
-        <v>7.479312419891357</v>
+        <v>7.334126949310303</v>
       </c>
       <c r="D14" t="n">
-        <v>11.44772529602051</v>
+        <v>10.28229331970215</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>9.390969276428223</v>
+        <v>8.716220855712891</v>
       </c>
       <c r="C15" t="n">
-        <v>7.615602493286133</v>
+        <v>7.356752395629883</v>
       </c>
       <c r="D15" t="n">
-        <v>11.16633605957031</v>
+        <v>10.0756893157959</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>9.471573829650879</v>
+        <v>8.712405204772949</v>
       </c>
       <c r="C16" t="n">
-        <v>7.779214382171631</v>
+        <v>7.351943969726562</v>
       </c>
       <c r="D16" t="n">
-        <v>11.16393280029297</v>
+        <v>10.07286643981934</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>9.544366836547852</v>
+        <v>8.872662544250488</v>
       </c>
       <c r="C17" t="n">
-        <v>7.332655906677246</v>
+        <v>7.734076976776123</v>
       </c>
       <c r="D17" t="n">
-        <v>11.75607776641846</v>
+        <v>10.0112476348877</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>9.527834892272949</v>
+        <v>9.077286720275879</v>
       </c>
       <c r="C18" t="n">
-        <v>7.611464500427246</v>
+        <v>8.046422958374023</v>
       </c>
       <c r="D18" t="n">
-        <v>11.44420528411865</v>
+        <v>10.10815048217773</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>9.283831596374512</v>
+        <v>9.079237937927246</v>
       </c>
       <c r="C19" t="n">
-        <v>7.140339851379395</v>
+        <v>7.915618896484375</v>
       </c>
       <c r="D19" t="n">
-        <v>11.42732334136963</v>
+        <v>10.24285697937012</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>9.214284896850586</v>
+        <v>8.992769241333008</v>
       </c>
       <c r="C20" t="n">
-        <v>7.019678115844727</v>
+        <v>7.568217277526855</v>
       </c>
       <c r="D20" t="n">
-        <v>11.40889167785645</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>8.886587142944336</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.548720359802246</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.22445392608643</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>9.130740165710449</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.87044620513916</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11.39103412628174</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>9.302812576293945</v>
-      </c>
-      <c r="C23" t="n">
-        <v>7.241259098052979</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.36436653137207</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>9.401419639587402</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7.659557342529297</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.14328193664551</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>9.442423820495605</v>
-      </c>
-      <c r="C25" t="n">
-        <v>8.003203392028809</v>
-      </c>
-      <c r="D25" t="n">
-        <v>10.8816442489624</v>
+        <v>10.41732120513916</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>7.883339071273804</v>
+        <v>8.95857048034668</v>
       </c>
       <c r="C2" t="n">
-        <v>6.44323739023207</v>
+        <v>7.352537631988525</v>
       </c>
       <c r="D2" t="n">
-        <v>9.323440752315538</v>
+        <v>10.56460285186768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>10.12614660263062</v>
+        <v>9.073635101318359</v>
       </c>
       <c r="C3" t="n">
-        <v>8.158406610799183</v>
+        <v>7.355035781860352</v>
       </c>
       <c r="D3" t="n">
-        <v>12.09388659446205</v>
+        <v>10.79223442077637</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>7.347913217544556</v>
+        <v>8.982255935668945</v>
       </c>
       <c r="C4" t="n">
-        <v>5.217458481271111</v>
+        <v>7.414929389953613</v>
       </c>
       <c r="D4" t="n">
-        <v>9.478367953818001</v>
+        <v>10.54958248138428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>9.092817735671996</v>
+        <v>8.971769332885742</v>
       </c>
       <c r="C5" t="n">
-        <v>7.466932019115703</v>
+        <v>7.471519470214844</v>
       </c>
       <c r="D5" t="n">
-        <v>10.71870345222829</v>
+        <v>10.47201919555664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>9.486695289611816</v>
+        <v>8.865179061889648</v>
       </c>
       <c r="C6" t="n">
-        <v>8.085739924813872</v>
+        <v>7.300107002258301</v>
       </c>
       <c r="D6" t="n">
-        <v>10.88765065440976</v>
+        <v>10.430251121521</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>11.54689788818359</v>
+        <v>12.03150653839111</v>
       </c>
       <c r="C2" t="n">
-        <v>10.18638229370117</v>
+        <v>10.675461769104</v>
       </c>
       <c r="D2" t="n">
-        <v>12.90741348266602</v>
+        <v>13.38755130767822</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>12.04936027526855</v>
+        <v>12.6362476348877</v>
       </c>
       <c r="C3" t="n">
-        <v>10.46831226348877</v>
+        <v>11.0332145690918</v>
       </c>
       <c r="D3" t="n">
-        <v>13.63040828704834</v>
+        <v>14.23928070068359</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>12.14338111877441</v>
+        <v>12.60514640808105</v>
       </c>
       <c r="C4" t="n">
-        <v>10.5964469909668</v>
+        <v>10.86812019348145</v>
       </c>
       <c r="D4" t="n">
-        <v>13.69031524658203</v>
+        <v>14.34217262268066</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>12.17235565185547</v>
+        <v>12.63383102416992</v>
       </c>
       <c r="C5" t="n">
-        <v>10.34077262878418</v>
+        <v>11.00990104675293</v>
       </c>
       <c r="D5" t="n">
-        <v>14.00393867492676</v>
+        <v>14.25776100158691</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>12.28800487518311</v>
+        <v>12.43674278259277</v>
       </c>
       <c r="C6" t="n">
-        <v>10.46614265441895</v>
+        <v>10.74424648284912</v>
       </c>
       <c r="D6" t="n">
-        <v>14.10986709594727</v>
+        <v>14.12923908233643</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>12.32082366943359</v>
+        <v>12.40316963195801</v>
       </c>
       <c r="C7" t="n">
-        <v>10.48351860046387</v>
+        <v>10.83876895904541</v>
       </c>
       <c r="D7" t="n">
-        <v>14.15812873840332</v>
+        <v>13.96757030487061</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>12.29290199279785</v>
+        <v>12.31122875213623</v>
       </c>
       <c r="C8" t="n">
-        <v>10.80347728729248</v>
+        <v>10.83268928527832</v>
       </c>
       <c r="D8" t="n">
-        <v>13.78232669830322</v>
+        <v>13.78976821899414</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>12.12348079681396</v>
+        <v>12.37757110595703</v>
       </c>
       <c r="C9" t="n">
-        <v>10.96636581420898</v>
+        <v>10.92550182342529</v>
       </c>
       <c r="D9" t="n">
-        <v>13.28059577941895</v>
+        <v>13.82964038848877</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>12.00113391876221</v>
+        <v>12.45984077453613</v>
       </c>
       <c r="C10" t="n">
-        <v>10.76466941833496</v>
+        <v>10.7956657409668</v>
       </c>
       <c r="D10" t="n">
-        <v>13.23759841918945</v>
+        <v>14.12401580810547</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>11.91297721862793</v>
+        <v>12.41862678527832</v>
       </c>
       <c r="C11" t="n">
-        <v>10.41947174072266</v>
+        <v>11.22710609436035</v>
       </c>
       <c r="D11" t="n">
-        <v>13.4064826965332</v>
+        <v>13.61014747619629</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>11.87679004669189</v>
+        <v>12.42804145812988</v>
       </c>
       <c r="C12" t="n">
-        <v>10.10943698883057</v>
+        <v>11.10486507415771</v>
       </c>
       <c r="D12" t="n">
-        <v>13.64414310455322</v>
+        <v>13.75121784210205</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>11.78965187072754</v>
+        <v>12.38956260681152</v>
       </c>
       <c r="C13" t="n">
-        <v>10.25233364105225</v>
+        <v>11.00771617889404</v>
       </c>
       <c r="D13" t="n">
-        <v>13.32697010040283</v>
+        <v>13.771409034729</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>11.56424999237061</v>
+        <v>12.50914096832275</v>
       </c>
       <c r="C14" t="n">
-        <v>9.622815132141113</v>
+        <v>11.31509304046631</v>
       </c>
       <c r="D14" t="n">
-        <v>13.5056848526001</v>
+        <v>13.7031888961792</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>11.37527370452881</v>
+        <v>12.54366588592529</v>
       </c>
       <c r="C15" t="n">
-        <v>9.155550003051758</v>
+        <v>10.91134738922119</v>
       </c>
       <c r="D15" t="n">
-        <v>13.59499740600586</v>
+        <v>14.17598438262939</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>11.26269817352295</v>
+        <v>12.6783504486084</v>
       </c>
       <c r="C16" t="n">
-        <v>8.706298828125</v>
+        <v>10.93493270874023</v>
       </c>
       <c r="D16" t="n">
-        <v>13.8190975189209</v>
+        <v>14.42176818847656</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>11.1500415802002</v>
+        <v>12.55819892883301</v>
       </c>
       <c r="C17" t="n">
-        <v>9.075704574584961</v>
+        <v>11.4303674697876</v>
       </c>
       <c r="D17" t="n">
-        <v>13.22437858581543</v>
+        <v>13.68603038787842</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>11.21288871765137</v>
+        <v>12.43615913391113</v>
       </c>
       <c r="C18" t="n">
-        <v>9.384129524230957</v>
+        <v>11.38491535186768</v>
       </c>
       <c r="D18" t="n">
-        <v>13.04164791107178</v>
+        <v>13.48740291595459</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>11.00736141204834</v>
+        <v>12.11566734313965</v>
       </c>
       <c r="C19" t="n">
-        <v>9.48394775390625</v>
+        <v>10.98436069488525</v>
       </c>
       <c r="D19" t="n">
-        <v>12.53077507019043</v>
+        <v>13.24697399139404</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>10.82002830505371</v>
+        <v>12.29858684539795</v>
       </c>
       <c r="C20" t="n">
-        <v>9.531491279602051</v>
+        <v>11.21151351928711</v>
       </c>
       <c r="D20" t="n">
-        <v>12.10856533050537</v>
+        <v>13.38566017150879</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>10.82074642181396</v>
+        <v>12.32480812072754</v>
       </c>
       <c r="C21" t="n">
-        <v>9.125007629394531</v>
+        <v>11.03996658325195</v>
       </c>
       <c r="D21" t="n">
-        <v>12.5164852142334</v>
+        <v>13.60964965820312</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>11.07370281219482</v>
+        <v>12.5608959197998</v>
       </c>
       <c r="C22" t="n">
-        <v>9.291301727294922</v>
+        <v>10.96263408660889</v>
       </c>
       <c r="D22" t="n">
-        <v>12.85610389709473</v>
+        <v>14.15915775299072</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>11.19883441925049</v>
+        <v>12.28348731994629</v>
       </c>
       <c r="C23" t="n">
-        <v>10.03341197967529</v>
+        <v>10.54477882385254</v>
       </c>
       <c r="D23" t="n">
-        <v>12.36425685882568</v>
+        <v>14.02219581604004</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>10.93277454376221</v>
+        <v>12.17778205871582</v>
       </c>
       <c r="C24" t="n">
-        <v>9.906941413879395</v>
+        <v>10.4934549331665</v>
       </c>
       <c r="D24" t="n">
-        <v>11.95860767364502</v>
+        <v>13.86210918426514</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>11.05012893676758</v>
+        <v>12.30439567565918</v>
       </c>
       <c r="C25" t="n">
-        <v>9.624855995178223</v>
+        <v>10.29420852661133</v>
       </c>
       <c r="D25" t="n">
-        <v>12.47540187835693</v>
+        <v>14.31458282470703</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>10.52416038513184</v>
+        <v>7.981784296035767</v>
       </c>
       <c r="C2" t="n">
-        <v>7.348960090984269</v>
+        <v>5.984857506248712</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6993606792794</v>
+        <v>9.978711085822821</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>11.14893865585327</v>
+        <v>7.825660514831543</v>
       </c>
       <c r="C3" t="n">
-        <v>9.683065372285078</v>
+        <v>5.314198899012094</v>
       </c>
       <c r="D3" t="n">
-        <v>12.61481193942146</v>
+        <v>10.33712213065099</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>9.089387130737304</v>
+        <v>10.27674446105957</v>
       </c>
       <c r="C4" t="n">
-        <v>6.78835153953343</v>
+        <v>9.282792872676589</v>
       </c>
       <c r="D4" t="n">
-        <v>11.39042272194118</v>
+        <v>11.27069604944255</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>10.7215744972229</v>
+        <v>9.280455923080444</v>
       </c>
       <c r="C5" t="n">
-        <v>8.593922531381434</v>
+        <v>6.129906566772894</v>
       </c>
       <c r="D5" t="n">
-        <v>12.84922646306437</v>
+        <v>12.43100527938799</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>11.07275743484497</v>
+        <v>12.21371812820434</v>
       </c>
       <c r="C6" t="n">
-        <v>9.69962708985458</v>
+        <v>10.89572891719162</v>
       </c>
       <c r="D6" t="n">
-        <v>12.44588777983536</v>
+        <v>13.53170733921707</v>
       </c>
     </row>
   </sheetData>
